--- a/utilities/Excel_Sheets/Products/NGP_USPRO_AZIONE.xlsx
+++ b/utilities/Excel_Sheets/Products/NGP_USPRO_AZIONE.xlsx
@@ -667,10 +667,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/utilities/Excel_Sheets/Products/NGP_USPRO_AZIONE.xlsx
+++ b/utilities/Excel_Sheets/Products/NGP_USPRO_AZIONE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -323,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -339,6 +339,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,13 +667,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -745,7 +748,8 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>43004</v>
+        <f ca="1">TODAY()</f>
+        <v>43123</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -790,7 +794,8 @@
         <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>43004</v>
+        <f ca="1">TODAY()</f>
+        <v>43123</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -835,7 +840,8 @@
         <v>1</v>
       </c>
       <c r="C6" s="6">
-        <v>43004</v>
+        <f ca="1">TODAY()</f>
+        <v>43123</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -880,7 +886,8 @@
         <v>1</v>
       </c>
       <c r="C8" s="6">
-        <v>43004</v>
+        <f ca="1">TODAY()</f>
+        <v>43123</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -925,7 +932,8 @@
         <v>1</v>
       </c>
       <c r="C10" s="6">
-        <v>43004</v>
+        <f ca="1">TODAY()</f>
+        <v>43123</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -970,7 +978,8 @@
         <v>1</v>
       </c>
       <c r="C12" s="6">
-        <v>43004</v>
+        <f ca="1">TODAY()</f>
+        <v>43123</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -1015,7 +1024,8 @@
         <v>2</v>
       </c>
       <c r="C14" s="9">
-        <v>43004</v>
+        <f ca="1">TODAY()</f>
+        <v>43123</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -1060,7 +1070,8 @@
         <v>1</v>
       </c>
       <c r="C16" s="6">
-        <v>43004</v>
+        <f ca="1">TODAY()</f>
+        <v>43123</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -1104,7 +1115,8 @@
         <v>1</v>
       </c>
       <c r="C17" s="6">
-        <v>43004</v>
+        <f t="shared" ref="C17:C65" ca="1" si="0">TODAY()</f>
+        <v>43123</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -1148,7 +1160,8 @@
         <v>1</v>
       </c>
       <c r="C18" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
@@ -1192,7 +1205,8 @@
         <v>1</v>
       </c>
       <c r="C19" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -1236,7 +1250,8 @@
         <v>1</v>
       </c>
       <c r="C20" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
@@ -1280,7 +1295,8 @@
         <v>1</v>
       </c>
       <c r="C21" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
@@ -1324,7 +1340,8 @@
         <v>1</v>
       </c>
       <c r="C22" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
@@ -1368,7 +1385,8 @@
         <v>1</v>
       </c>
       <c r="C23" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -1412,7 +1430,8 @@
         <v>1</v>
       </c>
       <c r="C24" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -1456,7 +1475,8 @@
         <v>1</v>
       </c>
       <c r="C25" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -1500,7 +1520,8 @@
         <v>1</v>
       </c>
       <c r="C26" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -1544,7 +1565,8 @@
         <v>1</v>
       </c>
       <c r="C27" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -1588,7 +1610,8 @@
         <v>1</v>
       </c>
       <c r="C28" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -1632,7 +1655,8 @@
         <v>1</v>
       </c>
       <c r="C29" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
@@ -1676,7 +1700,8 @@
         <v>1</v>
       </c>
       <c r="C30" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
@@ -1720,7 +1745,8 @@
         <v>1</v>
       </c>
       <c r="C31" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
@@ -1764,7 +1790,8 @@
         <v>1</v>
       </c>
       <c r="C32" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D32" s="4">
         <v>0</v>
@@ -1808,7 +1835,8 @@
         <v>1</v>
       </c>
       <c r="C33" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
@@ -1852,7 +1880,8 @@
         <v>1</v>
       </c>
       <c r="C34" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -1896,7 +1925,8 @@
         <v>1</v>
       </c>
       <c r="C35" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -1940,7 +1970,8 @@
         <v>1</v>
       </c>
       <c r="C36" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
@@ -1984,7 +2015,8 @@
         <v>1</v>
       </c>
       <c r="C37" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
@@ -2028,7 +2060,8 @@
         <v>1</v>
       </c>
       <c r="C38" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D38" s="4">
         <v>0</v>
@@ -2072,7 +2105,8 @@
         <v>1</v>
       </c>
       <c r="C39" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D39" s="4">
         <v>0</v>
@@ -2116,7 +2150,8 @@
         <v>1</v>
       </c>
       <c r="C40" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
       </c>
       <c r="D40" s="4">
         <v>0</v>
@@ -2159,8 +2194,9 @@
       <c r="B41" s="8">
         <v>2</v>
       </c>
-      <c r="C41" s="9">
-        <v>43004</v>
+      <c r="C41" s="11">
+        <f ca="1">TODAY()</f>
+        <v>43123</v>
       </c>
       <c r="D41" s="8">
         <v>0</v>
@@ -2203,8 +2239,9 @@
       <c r="B42" s="8">
         <v>2</v>
       </c>
-      <c r="C42" s="9">
-        <v>43004</v>
+      <c r="C42" s="11">
+        <f t="shared" ref="C42:C65" ca="1" si="1">TODAY()</f>
+        <v>43123</v>
       </c>
       <c r="D42" s="8">
         <v>0</v>
@@ -2247,8 +2284,9 @@
       <c r="B43" s="8">
         <v>2</v>
       </c>
-      <c r="C43" s="9">
-        <v>43004</v>
+      <c r="C43" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D43" s="8">
         <v>0</v>
@@ -2291,8 +2329,9 @@
       <c r="B44" s="8">
         <v>2</v>
       </c>
-      <c r="C44" s="9">
-        <v>43004</v>
+      <c r="C44" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D44" s="8">
         <v>0</v>
@@ -2335,8 +2374,9 @@
       <c r="B45" s="8">
         <v>2</v>
       </c>
-      <c r="C45" s="9">
-        <v>43004</v>
+      <c r="C45" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D45" s="8">
         <v>0</v>
@@ -2379,8 +2419,9 @@
       <c r="B46" s="8">
         <v>2</v>
       </c>
-      <c r="C46" s="9">
-        <v>43004</v>
+      <c r="C46" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D46" s="8">
         <v>0</v>
@@ -2423,8 +2464,9 @@
       <c r="B47" s="8">
         <v>2</v>
       </c>
-      <c r="C47" s="9">
-        <v>43004</v>
+      <c r="C47" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D47" s="8">
         <v>0</v>
@@ -2467,8 +2509,9 @@
       <c r="B48" s="8">
         <v>2</v>
       </c>
-      <c r="C48" s="9">
-        <v>43004</v>
+      <c r="C48" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D48" s="8">
         <v>0</v>
@@ -2511,8 +2554,9 @@
       <c r="B49" s="8">
         <v>2</v>
       </c>
-      <c r="C49" s="9">
-        <v>43004</v>
+      <c r="C49" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D49" s="8">
         <v>0</v>
@@ -2555,8 +2599,9 @@
       <c r="B50" s="8">
         <v>2</v>
       </c>
-      <c r="C50" s="9">
-        <v>43004</v>
+      <c r="C50" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D50" s="8">
         <v>0</v>
@@ -2599,8 +2644,9 @@
       <c r="B51" s="8">
         <v>2</v>
       </c>
-      <c r="C51" s="9">
-        <v>43004</v>
+      <c r="C51" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D51" s="8">
         <v>0</v>
@@ -2643,8 +2689,9 @@
       <c r="B52" s="8">
         <v>2</v>
       </c>
-      <c r="C52" s="9">
-        <v>43004</v>
+      <c r="C52" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D52" s="8">
         <v>0</v>
@@ -2687,8 +2734,9 @@
       <c r="B53" s="8">
         <v>2</v>
       </c>
-      <c r="C53" s="9">
-        <v>43004</v>
+      <c r="C53" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D53" s="8">
         <v>0</v>
@@ -2731,8 +2779,9 @@
       <c r="B54" s="8">
         <v>2</v>
       </c>
-      <c r="C54" s="9">
-        <v>43004</v>
+      <c r="C54" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D54" s="8">
         <v>0</v>
@@ -2775,8 +2824,9 @@
       <c r="B55" s="8">
         <v>2</v>
       </c>
-      <c r="C55" s="9">
-        <v>43004</v>
+      <c r="C55" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D55" s="8">
         <v>0</v>
@@ -2819,8 +2869,9 @@
       <c r="B56" s="8">
         <v>2</v>
       </c>
-      <c r="C56" s="9">
-        <v>43004</v>
+      <c r="C56" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D56" s="8">
         <v>0</v>
@@ -2863,8 +2914,9 @@
       <c r="B57" s="8">
         <v>2</v>
       </c>
-      <c r="C57" s="9">
-        <v>43004</v>
+      <c r="C57" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D57" s="8">
         <v>0</v>
@@ -2907,8 +2959,9 @@
       <c r="B58" s="8">
         <v>2</v>
       </c>
-      <c r="C58" s="9">
-        <v>43004</v>
+      <c r="C58" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D58" s="8">
         <v>0</v>
@@ -2951,8 +3004,9 @@
       <c r="B59" s="8">
         <v>2</v>
       </c>
-      <c r="C59" s="9">
-        <v>43004</v>
+      <c r="C59" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D59" s="8">
         <v>0</v>
@@ -2995,8 +3049,9 @@
       <c r="B60" s="8">
         <v>2</v>
       </c>
-      <c r="C60" s="9">
-        <v>43004</v>
+      <c r="C60" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D60" s="8">
         <v>0</v>
@@ -3039,8 +3094,9 @@
       <c r="B61" s="8">
         <v>2</v>
       </c>
-      <c r="C61" s="9">
-        <v>43004</v>
+      <c r="C61" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D61" s="8">
         <v>0</v>
@@ -3083,8 +3139,9 @@
       <c r="B62" s="8">
         <v>2</v>
       </c>
-      <c r="C62" s="9">
-        <v>43004</v>
+      <c r="C62" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D62" s="8">
         <v>0</v>
@@ -3127,8 +3184,9 @@
       <c r="B63" s="8">
         <v>2</v>
       </c>
-      <c r="C63" s="9">
-        <v>43004</v>
+      <c r="C63" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D63" s="8">
         <v>0</v>
@@ -3171,8 +3229,9 @@
       <c r="B64" s="8">
         <v>2</v>
       </c>
-      <c r="C64" s="9">
-        <v>43004</v>
+      <c r="C64" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D64" s="8">
         <v>0</v>
@@ -3215,8 +3274,9 @@
       <c r="B65" s="8">
         <v>2</v>
       </c>
-      <c r="C65" s="9">
-        <v>43004</v>
+      <c r="C65" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43123</v>
       </c>
       <c r="D65" s="8">
         <v>0</v>
@@ -4149,14 +4209,14 @@
       <c r="N121"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N121"/>
+  <autoFilter ref="A1:N121" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -7326,7 +7386,7 @@
       <c r="N107"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N107"/>
+  <autoFilter ref="A1:N107" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/utilities/Excel_Sheets/Products/NGP_USPRO_AZIONE.xlsx
+++ b/utilities/Excel_Sheets/Products/NGP_USPRO_AZIONE.xlsx
@@ -671,9 +671,9 @@
   <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -748,8 +748,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43123</v>
+        <v>43131</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -773,7 +772,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="5">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>25</v>
@@ -795,7 +794,7 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -841,7 +840,7 @@
       </c>
       <c r="C6" s="6">
         <f ca="1">TODAY()</f>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -887,7 +886,7 @@
       </c>
       <c r="C8" s="6">
         <f ca="1">TODAY()</f>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -933,10 +932,10 @@
       </c>
       <c r="C10" s="6">
         <f ca="1">TODAY()</f>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>1</v>
@@ -979,10 +978,10 @@
       </c>
       <c r="C12" s="6">
         <f ca="1">TODAY()</f>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3" t="b">
         <v>1</v>
@@ -1025,10 +1024,10 @@
       </c>
       <c r="C14" s="9">
         <f ca="1">TODAY()</f>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D14" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="7" t="b">
         <v>1</v>
@@ -1071,10 +1070,10 @@
       </c>
       <c r="C16" s="6">
         <f ca="1">TODAY()</f>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3" t="b">
         <v>1</v>
@@ -1115,11 +1114,11 @@
         <v>1</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" ref="C17:C65" ca="1" si="0">TODAY()</f>
-        <v>43123</v>
+        <f t="shared" ref="C17:C40" ca="1" si="0">TODAY()</f>
+        <v>43146</v>
       </c>
       <c r="D17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3" t="b">
         <v>1</v>
@@ -1161,10 +1160,10 @@
       </c>
       <c r="C18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3" t="b">
         <v>1</v>
@@ -1206,10 +1205,10 @@
       </c>
       <c r="C19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="3" t="b">
         <v>1</v>
@@ -1251,10 +1250,10 @@
       </c>
       <c r="C20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3" t="b">
         <v>1</v>
@@ -1296,10 +1295,10 @@
       </c>
       <c r="C21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="3" t="b">
         <v>1</v>
@@ -1341,10 +1340,10 @@
       </c>
       <c r="C22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>1</v>
@@ -1386,10 +1385,10 @@
       </c>
       <c r="C23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>1</v>
@@ -1431,10 +1430,10 @@
       </c>
       <c r="C24" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="3" t="b">
         <v>1</v>
@@ -1476,10 +1475,10 @@
       </c>
       <c r="C25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="3" t="b">
         <v>1</v>
@@ -1521,10 +1520,10 @@
       </c>
       <c r="C26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="3" t="b">
         <v>1</v>
@@ -1566,10 +1565,10 @@
       </c>
       <c r="C27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="3" t="b">
         <v>1</v>
@@ -1611,10 +1610,10 @@
       </c>
       <c r="C28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="3" t="b">
         <v>1</v>
@@ -1656,10 +1655,10 @@
       </c>
       <c r="C29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="3" t="b">
         <v>1</v>
@@ -1701,10 +1700,10 @@
       </c>
       <c r="C30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="3" t="b">
         <v>1</v>
@@ -1746,10 +1745,10 @@
       </c>
       <c r="C31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D31" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="3" t="b">
         <v>1</v>
@@ -1791,10 +1790,10 @@
       </c>
       <c r="C32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D32" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="3" t="b">
         <v>1</v>
@@ -1836,10 +1835,10 @@
       </c>
       <c r="C33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D33" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="3" t="b">
         <v>1</v>
@@ -1881,10 +1880,10 @@
       </c>
       <c r="C34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="3" t="b">
         <v>1</v>
@@ -1926,10 +1925,10 @@
       </c>
       <c r="C35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="3" t="b">
         <v>1</v>
@@ -1971,10 +1970,10 @@
       </c>
       <c r="C36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="3" t="b">
         <v>1</v>
@@ -2016,10 +2015,10 @@
       </c>
       <c r="C37" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="3" t="b">
         <v>1</v>
@@ -2061,10 +2060,10 @@
       </c>
       <c r="C38" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="3" t="b">
         <v>1</v>
@@ -2106,10 +2105,10 @@
       </c>
       <c r="C39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="3" t="b">
         <v>1</v>
@@ -2151,10 +2150,10 @@
       </c>
       <c r="C40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D40" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="3" t="b">
         <v>1</v>
@@ -2196,10 +2195,10 @@
       </c>
       <c r="C41" s="11">
         <f ca="1">TODAY()</f>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D41" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41" s="7" t="b">
         <v>1</v>
@@ -2241,10 +2240,10 @@
       </c>
       <c r="C42" s="11">
         <f t="shared" ref="C42:C65" ca="1" si="1">TODAY()</f>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D42" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42" s="7" t="b">
         <v>1</v>
@@ -2286,10 +2285,10 @@
       </c>
       <c r="C43" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D43" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E43" s="7" t="b">
         <v>1</v>
@@ -2331,10 +2330,10 @@
       </c>
       <c r="C44" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D44" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E44" s="7" t="b">
         <v>1</v>
@@ -2376,10 +2375,10 @@
       </c>
       <c r="C45" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D45" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" s="7" t="b">
         <v>1</v>
@@ -2421,10 +2420,10 @@
       </c>
       <c r="C46" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D46" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E46" s="7" t="b">
         <v>1</v>
@@ -2466,10 +2465,10 @@
       </c>
       <c r="C47" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D47" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E47" s="7" t="b">
         <v>1</v>
@@ -2511,10 +2510,10 @@
       </c>
       <c r="C48" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D48" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48" s="7" t="b">
         <v>1</v>
@@ -2556,10 +2555,10 @@
       </c>
       <c r="C49" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D49" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49" s="7" t="b">
         <v>1</v>
@@ -2601,10 +2600,10 @@
       </c>
       <c r="C50" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D50" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E50" s="7" t="b">
         <v>1</v>
@@ -2646,10 +2645,10 @@
       </c>
       <c r="C51" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D51" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E51" s="7" t="b">
         <v>1</v>
@@ -2691,10 +2690,10 @@
       </c>
       <c r="C52" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D52" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E52" s="7" t="b">
         <v>1</v>
@@ -2736,10 +2735,10 @@
       </c>
       <c r="C53" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D53" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E53" s="7" t="b">
         <v>1</v>
@@ -2781,10 +2780,10 @@
       </c>
       <c r="C54" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D54" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54" s="7" t="b">
         <v>1</v>
@@ -2826,10 +2825,10 @@
       </c>
       <c r="C55" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D55" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E55" s="7" t="b">
         <v>1</v>
@@ -2871,10 +2870,10 @@
       </c>
       <c r="C56" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D56" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E56" s="7" t="b">
         <v>1</v>
@@ -2916,10 +2915,10 @@
       </c>
       <c r="C57" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D57" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E57" s="7" t="b">
         <v>1</v>
@@ -2961,10 +2960,10 @@
       </c>
       <c r="C58" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D58" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E58" s="7" t="b">
         <v>1</v>
@@ -3006,10 +3005,10 @@
       </c>
       <c r="C59" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D59" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E59" s="7" t="b">
         <v>1</v>
@@ -3051,10 +3050,10 @@
       </c>
       <c r="C60" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D60" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E60" s="7" t="b">
         <v>1</v>
@@ -3096,10 +3095,10 @@
       </c>
       <c r="C61" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D61" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E61" s="7" t="b">
         <v>1</v>
@@ -3141,10 +3140,10 @@
       </c>
       <c r="C62" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D62" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E62" s="7" t="b">
         <v>1</v>
@@ -3186,10 +3185,10 @@
       </c>
       <c r="C63" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D63" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E63" s="7" t="b">
         <v>1</v>
@@ -3231,10 +3230,10 @@
       </c>
       <c r="C64" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D64" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E64" s="7" t="b">
         <v>1</v>
@@ -3276,10 +3275,10 @@
       </c>
       <c r="C65" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43123</v>
+        <v>43146</v>
       </c>
       <c r="D65" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E65" s="7" t="b">
         <v>1</v>

--- a/utilities/Excel_Sheets/Products/NGP_USPRO_AZIONE.xlsx
+++ b/utilities/Excel_Sheets/Products/NGP_USPRO_AZIONE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="77">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -258,9 +258,6 @@
   </si>
   <si>
     <t>No_PCI_Real_Estate_Investment/Private_Equity_Firms_Total_Records_Uncertain</t>
-  </si>
-  <si>
-    <t>Financial Advisor/Investment Advisor</t>
   </si>
   <si>
     <t>select_NetGuard_Plus_with_BrandGuard_PCI_Assessment_Sublimit_1MM_limit_2pt5K_Deduct</t>
@@ -673,7 +670,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -748,7 +745,8 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>43131</v>
+        <f ca="1">TODAY()</f>
+        <v>43209</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -763,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>5</v>
@@ -778,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N2" s="4">
         <v>1</v>
@@ -794,7 +792,7 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -840,7 +838,7 @@
       </c>
       <c r="C6" s="6">
         <f ca="1">TODAY()</f>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -886,7 +884,7 @@
       </c>
       <c r="C8" s="6">
         <f ca="1">TODAY()</f>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -932,7 +930,7 @@
       </c>
       <c r="C10" s="6">
         <f ca="1">TODAY()</f>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -978,7 +976,7 @@
       </c>
       <c r="C12" s="6">
         <f ca="1">TODAY()</f>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1024,7 +1022,7 @@
       </c>
       <c r="C14" s="9">
         <f ca="1">TODAY()</f>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D14" s="8">
         <v>2</v>
@@ -1070,7 +1068,7 @@
       </c>
       <c r="C16" s="6">
         <f ca="1">TODAY()</f>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1115,7 +1113,7 @@
       </c>
       <c r="C17" s="6">
         <f t="shared" ref="C17:C40" ca="1" si="0">TODAY()</f>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -1160,7 +1158,7 @@
       </c>
       <c r="C18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -1205,7 +1203,7 @@
       </c>
       <c r="C19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1250,7 +1248,7 @@
       </c>
       <c r="C20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1295,7 +1293,7 @@
       </c>
       <c r="C21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -1340,7 +1338,7 @@
       </c>
       <c r="C22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -1385,7 +1383,7 @@
       </c>
       <c r="C23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -1430,7 +1428,7 @@
       </c>
       <c r="C24" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -1475,7 +1473,7 @@
       </c>
       <c r="C25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1520,7 +1518,7 @@
       </c>
       <c r="C26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -1565,7 +1563,7 @@
       </c>
       <c r="C27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1610,7 +1608,7 @@
       </c>
       <c r="C28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -1655,7 +1653,7 @@
       </c>
       <c r="C29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -1700,7 +1698,7 @@
       </c>
       <c r="C30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1745,7 +1743,7 @@
       </c>
       <c r="C31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1790,7 +1788,7 @@
       </c>
       <c r="C32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -1835,7 +1833,7 @@
       </c>
       <c r="C33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1880,7 +1878,7 @@
       </c>
       <c r="C34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -1925,7 +1923,7 @@
       </c>
       <c r="C35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1970,7 +1968,7 @@
       </c>
       <c r="C36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -2015,7 +2013,7 @@
       </c>
       <c r="C37" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -2060,7 +2058,7 @@
       </c>
       <c r="C38" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -2105,7 +2103,7 @@
       </c>
       <c r="C39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -2150,7 +2148,7 @@
       </c>
       <c r="C40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -2195,7 +2193,7 @@
       </c>
       <c r="C41" s="11">
         <f ca="1">TODAY()</f>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D41" s="8">
         <v>2</v>
@@ -2240,7 +2238,7 @@
       </c>
       <c r="C42" s="11">
         <f t="shared" ref="C42:C65" ca="1" si="1">TODAY()</f>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D42" s="8">
         <v>2</v>
@@ -2285,7 +2283,7 @@
       </c>
       <c r="C43" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D43" s="8">
         <v>2</v>
@@ -2330,7 +2328,7 @@
       </c>
       <c r="C44" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D44" s="8">
         <v>2</v>
@@ -2375,7 +2373,7 @@
       </c>
       <c r="C45" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D45" s="8">
         <v>2</v>
@@ -2420,7 +2418,7 @@
       </c>
       <c r="C46" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D46" s="8">
         <v>2</v>
@@ -2465,7 +2463,7 @@
       </c>
       <c r="C47" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D47" s="8">
         <v>2</v>
@@ -2510,7 +2508,7 @@
       </c>
       <c r="C48" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D48" s="8">
         <v>2</v>
@@ -2555,7 +2553,7 @@
       </c>
       <c r="C49" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D49" s="8">
         <v>2</v>
@@ -2600,7 +2598,7 @@
       </c>
       <c r="C50" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D50" s="8">
         <v>2</v>
@@ -2645,7 +2643,7 @@
       </c>
       <c r="C51" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D51" s="8">
         <v>2</v>
@@ -2690,7 +2688,7 @@
       </c>
       <c r="C52" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D52" s="8">
         <v>2</v>
@@ -2735,7 +2733,7 @@
       </c>
       <c r="C53" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D53" s="8">
         <v>2</v>
@@ -2780,7 +2778,7 @@
       </c>
       <c r="C54" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D54" s="8">
         <v>2</v>
@@ -2825,7 +2823,7 @@
       </c>
       <c r="C55" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D55" s="8">
         <v>2</v>
@@ -2870,7 +2868,7 @@
       </c>
       <c r="C56" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D56" s="8">
         <v>2</v>
@@ -2915,7 +2913,7 @@
       </c>
       <c r="C57" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D57" s="8">
         <v>2</v>
@@ -2960,7 +2958,7 @@
       </c>
       <c r="C58" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D58" s="8">
         <v>2</v>
@@ -3005,7 +3003,7 @@
       </c>
       <c r="C59" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D59" s="8">
         <v>2</v>
@@ -3050,7 +3048,7 @@
       </c>
       <c r="C60" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D60" s="8">
         <v>2</v>
@@ -3095,7 +3093,7 @@
       </c>
       <c r="C61" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D61" s="8">
         <v>2</v>
@@ -3140,7 +3138,7 @@
       </c>
       <c r="C62" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D62" s="8">
         <v>2</v>
@@ -3185,7 +3183,7 @@
       </c>
       <c r="C63" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D63" s="8">
         <v>2</v>
@@ -3230,7 +3228,7 @@
       </c>
       <c r="C64" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D64" s="8">
         <v>2</v>
@@ -3275,7 +3273,7 @@
       </c>
       <c r="C65" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43146</v>
+        <v>43209</v>
       </c>
       <c r="D65" s="8">
         <v>2</v>
@@ -4221,7 +4219,7 @@
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/utilities/Excel_Sheets/Products/NGP_USPRO_AZIONE.xlsx
+++ b/utilities/Excel_Sheets/Products/NGP_USPRO_AZIONE.xlsx
@@ -670,7 +670,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -745,8 +745,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43209</v>
+        <v>43270</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -792,7 +791,7 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -838,7 +837,7 @@
       </c>
       <c r="C6" s="6">
         <f ca="1">TODAY()</f>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -884,7 +883,7 @@
       </c>
       <c r="C8" s="6">
         <f ca="1">TODAY()</f>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -930,7 +929,7 @@
       </c>
       <c r="C10" s="6">
         <f ca="1">TODAY()</f>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -976,7 +975,7 @@
       </c>
       <c r="C12" s="6">
         <f ca="1">TODAY()</f>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1022,7 +1021,7 @@
       </c>
       <c r="C14" s="9">
         <f ca="1">TODAY()</f>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D14" s="8">
         <v>2</v>
@@ -1068,7 +1067,7 @@
       </c>
       <c r="C16" s="6">
         <f ca="1">TODAY()</f>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1113,7 +1112,7 @@
       </c>
       <c r="C17" s="6">
         <f t="shared" ref="C17:C40" ca="1" si="0">TODAY()</f>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -1158,7 +1157,7 @@
       </c>
       <c r="C18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -1203,7 +1202,7 @@
       </c>
       <c r="C19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1248,7 +1247,7 @@
       </c>
       <c r="C20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1293,7 +1292,7 @@
       </c>
       <c r="C21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -1338,7 +1337,7 @@
       </c>
       <c r="C22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -1383,7 +1382,7 @@
       </c>
       <c r="C23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -1428,7 +1427,7 @@
       </c>
       <c r="C24" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -1473,7 +1472,7 @@
       </c>
       <c r="C25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1518,7 +1517,7 @@
       </c>
       <c r="C26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -1563,7 +1562,7 @@
       </c>
       <c r="C27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1608,7 +1607,7 @@
       </c>
       <c r="C28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -1653,7 +1652,7 @@
       </c>
       <c r="C29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -1698,7 +1697,7 @@
       </c>
       <c r="C30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1743,7 +1742,7 @@
       </c>
       <c r="C31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1788,7 +1787,7 @@
       </c>
       <c r="C32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -1833,7 +1832,7 @@
       </c>
       <c r="C33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1878,7 +1877,7 @@
       </c>
       <c r="C34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -1923,7 +1922,7 @@
       </c>
       <c r="C35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1968,7 +1967,7 @@
       </c>
       <c r="C36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -2013,7 +2012,7 @@
       </c>
       <c r="C37" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -2058,7 +2057,7 @@
       </c>
       <c r="C38" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -2103,7 +2102,7 @@
       </c>
       <c r="C39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -2148,7 +2147,7 @@
       </c>
       <c r="C40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -2193,7 +2192,7 @@
       </c>
       <c r="C41" s="11">
         <f ca="1">TODAY()</f>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D41" s="8">
         <v>2</v>
@@ -2238,7 +2237,7 @@
       </c>
       <c r="C42" s="11">
         <f t="shared" ref="C42:C65" ca="1" si="1">TODAY()</f>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D42" s="8">
         <v>2</v>
@@ -2283,7 +2282,7 @@
       </c>
       <c r="C43" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D43" s="8">
         <v>2</v>
@@ -2328,7 +2327,7 @@
       </c>
       <c r="C44" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D44" s="8">
         <v>2</v>
@@ -2373,7 +2372,7 @@
       </c>
       <c r="C45" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D45" s="8">
         <v>2</v>
@@ -2418,7 +2417,7 @@
       </c>
       <c r="C46" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D46" s="8">
         <v>2</v>
@@ -2463,7 +2462,7 @@
       </c>
       <c r="C47" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D47" s="8">
         <v>2</v>
@@ -2508,7 +2507,7 @@
       </c>
       <c r="C48" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D48" s="8">
         <v>2</v>
@@ -2553,7 +2552,7 @@
       </c>
       <c r="C49" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D49" s="8">
         <v>2</v>
@@ -2598,7 +2597,7 @@
       </c>
       <c r="C50" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D50" s="8">
         <v>2</v>
@@ -2643,7 +2642,7 @@
       </c>
       <c r="C51" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D51" s="8">
         <v>2</v>
@@ -2688,7 +2687,7 @@
       </c>
       <c r="C52" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D52" s="8">
         <v>2</v>
@@ -2733,7 +2732,7 @@
       </c>
       <c r="C53" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D53" s="8">
         <v>2</v>
@@ -2778,7 +2777,7 @@
       </c>
       <c r="C54" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D54" s="8">
         <v>2</v>
@@ -2823,7 +2822,7 @@
       </c>
       <c r="C55" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D55" s="8">
         <v>2</v>
@@ -2868,7 +2867,7 @@
       </c>
       <c r="C56" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D56" s="8">
         <v>2</v>
@@ -2913,7 +2912,7 @@
       </c>
       <c r="C57" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D57" s="8">
         <v>2</v>
@@ -2958,7 +2957,7 @@
       </c>
       <c r="C58" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D58" s="8">
         <v>2</v>
@@ -3003,7 +3002,7 @@
       </c>
       <c r="C59" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D59" s="8">
         <v>2</v>
@@ -3048,7 +3047,7 @@
       </c>
       <c r="C60" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D60" s="8">
         <v>2</v>
@@ -3093,7 +3092,7 @@
       </c>
       <c r="C61" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D61" s="8">
         <v>2</v>
@@ -3138,7 +3137,7 @@
       </c>
       <c r="C62" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D62" s="8">
         <v>2</v>
@@ -3183,7 +3182,7 @@
       </c>
       <c r="C63" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D63" s="8">
         <v>2</v>
@@ -3228,7 +3227,7 @@
       </c>
       <c r="C64" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D64" s="8">
         <v>2</v>
@@ -3273,7 +3272,7 @@
       </c>
       <c r="C65" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43209</v>
+        <v>43280</v>
       </c>
       <c r="D65" s="8">
         <v>2</v>
